--- a/bh3/505368310439777015_2021-03-23_20-47-09.xlsx
+++ b/bh3/505368310439777015_2021-03-23_20-47-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:34</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76428240741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4307715187</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:38:02</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44280.77641203703</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>4311848501</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:42:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44280.02979166667</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,10 +789,8 @@
           <t>4311886500</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:18:07</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44279.97091435185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -846,10 +854,8 @@
           <t>4311848501</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:11:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44279.96613425926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -913,10 +919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:46:00</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44279.94861111111</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>4310915836</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:06:32</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44279.83787037037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>4310866326</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:56:56</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44279.8312037037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1123,10 +1123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-24 17:38:30</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44279.73506944445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1202,10 +1200,8 @@
           <t>4310041001</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-24 16:50:00</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44279.70138888889</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1277,10 +1273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-24 16:24:12</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44279.68347222222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1348,10 +1342,8 @@
           <t>4308626724</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-24 14:23:46</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44279.59983796296</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1428,10 +1420,8 @@
           <t>4307041997</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-24 14:08:09</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44279.58899305556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1507,10 +1497,8 @@
           <t>4309547560</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:59:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44279.58275462963</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1574,10 +1562,8 @@
           <t>4308626724</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-24 13:02:35</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44279.54346064815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1653,10 +1639,8 @@
           <t>4309284967</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-24 12:46:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44279.53223379629</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1732,10 +1716,8 @@
           <t>4306984529</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-24 12:44:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44279.53106481482</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1807,10 +1789,8 @@
           <t>4306984529</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-24 12:39:45</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44279.52760416667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1882,10 +1862,8 @@
           <t>4306984529</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-24 12:07:27</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44279.50517361111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1957,10 +1935,8 @@
           <t>4308626724</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:51:07</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44279.49383101852</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2037,10 +2013,8 @@
           <t>4307041997</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:39:43</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44279.48591435186</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2116,10 +2090,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:13:31</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44279.46771990741</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2187,10 +2159,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-24 10:06:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44279.42118055555</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2258,10 +2228,8 @@
           <t>4308626724</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:31:14</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44279.39668981481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2337,10 +2305,8 @@
           <t>4308627698</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:24:52</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44279.39226851852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2412,10 +2378,8 @@
           <t>4308626724</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:23:43</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44279.39146990741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2492,10 +2456,8 @@
           <t>4307715187</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:12:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44279.38394675926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2571,10 +2533,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:11:36</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44279.38305555555</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2650,10 +2610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:01:12</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44279.37583333333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2729,10 +2687,8 @@
           <t>4308572611</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-24 09:00:34</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44279.37539351852</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2808,10 +2764,8 @@
           <t>4307715187</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:46:25</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44279.36556712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2887,10 +2841,8 @@
           <t>4307687874</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:46:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44279.3653587963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2966,10 +2918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:28:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44279.35280092592</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3041,10 +2991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:09:02</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44279.33960648148</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3120,10 +3068,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 08:08:59</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.33957175926</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3191,10 +3137,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:51:58</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.32775462963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3254,10 +3198,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:42:30</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.32118055555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3333,10 +3275,8 @@
           <t>4308389073</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:30:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44279.31255787037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3408,10 +3348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:25:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44279.30935185185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3480,10 +3418,8 @@
           <t>4307065913</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:17:20</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44279.30370370371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3555,10 +3491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-24 07:04:51</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44279.29503472222</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3626,10 +3560,8 @@
           <t>4307933867</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:48:10</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44279.28344907407</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3701,10 +3633,8 @@
           <t>4308340148</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:44:12</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44279.28069444445</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3776,10 +3706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-24 06:43:03</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44279.27989583334</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3851,10 +3779,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-24 04:00:25</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44279.16695601852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3926,10 +3852,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:45:03</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44279.15628472222</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3993,10 +3917,8 @@
           <t>4308234276</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:42:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44279.15447916667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4064,10 +3986,8 @@
           <t>4308240080</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:41:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44279.15391203704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4135,10 +4055,8 @@
           <t>4308229693</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:39:50</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44279.15266203704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4206,10 +4124,8 @@
           <t>4308233520</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:39:14</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44279.15224537037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4277,10 +4193,8 @@
           <t>4307299016</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:37:59</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44279.15137731482</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4348,10 +4262,8 @@
           <t>4306952004</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:36:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44279.15053240741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4419,10 +4331,8 @@
           <t>4308228817</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:36:19</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44279.15021990741</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4490,10 +4400,8 @@
           <t>4307336287</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:34:32</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44279.14898148148</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4561,10 +4469,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:10:57</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44279.13260416667</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4632,10 +4538,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-24 03:06:02</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44279.12918981481</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4703,10 +4607,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:24:17</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44279.10019675926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4774,10 +4676,8 @@
           <t>4308165266</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-24 02:22:51</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44279.09920138889</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4845,10 +4745,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:40:34</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44279.06983796296</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4924,10 +4822,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:40:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44279.06946759259</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -5003,10 +4899,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:31:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44279.06366898148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5070,10 +4964,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:29:07</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44279.06188657408</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5145,10 +5037,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:23:27</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44279.05795138889</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5212,10 +5102,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:21:28</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44279.05657407407</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5279,10 +5167,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:19:30</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44279.05520833333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5355,10 +5241,8 @@
           <t>4307152976</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:14:20</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44279.05162037037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5430,10 +5314,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:05:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44279.04572916667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5497,10 +5379,8 @@
           <t>4308020657</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:04:05</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44279.04450231481</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5568,10 +5448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:04:02</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44279.04446759259</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5643,10 +5521,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-24 01:00:52</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44279.04226851852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5710,10 +5586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:47:19</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44279.03285879629</v>
       </c>
       <c r="I72" t="n">
         <v>7</v>
@@ -5789,10 +5663,8 @@
           <t>4307949636</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:42:48</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44279.02972222222</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5860,10 +5732,8 @@
           <t>4307949327</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:42:31</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44279.02952546296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5942,10 +5812,8 @@
           <t>4307946387</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:39:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44279.0277199074</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6021,10 +5889,8 @@
           <t>4307933867</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:37:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44279.0262037037</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
@@ -6092,10 +5958,8 @@
           <t>4307932759</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:36:46</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44279.02553240741</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6163,10 +6027,8 @@
           <t>4306881164</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:32:38</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44279.02266203704</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6230,10 +6092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:29:43</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44279.02063657407</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6297,10 +6157,8 @@
           <t>4306881164</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:24:14</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44279.0168287037</v>
       </c>
       <c r="I80" t="n">
         <v>21</v>
@@ -6376,10 +6234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:23:27</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44279.01628472222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6452,10 +6308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:19:47</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44279.01373842593</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6523,10 +6377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:19:43</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44279.01369212963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6599,10 +6451,8 @@
           <t>4307037838</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:13:55</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44279.00966435186</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6666,10 +6516,8 @@
           <t>4307675424</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-24 00:04:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44279.00331018519</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6745,10 +6593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:57:25</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44278.99820601852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6808,10 +6654,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:56:38</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44278.99766203704</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6883,10 +6727,8 @@
           <t>4307212757</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:53:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44278.9955787037</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6958,10 +6800,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:52:01</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44278.99445601852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7033,10 +6873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:48:52</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44278.99226851852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7112,10 +6950,8 @@
           <t>4307728902</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:48:46</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44278.99219907408</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7191,10 +7027,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:47:11</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44278.99109953704</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7262,10 +7096,8 @@
           <t>4307725055</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:46:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44278.99047453704</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7341,10 +7173,8 @@
           <t>4307720844</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:45:06</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44278.98965277777</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7420,10 +7250,8 @@
           <t>4307715187</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:44:06</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44278.98895833334</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7499,10 +7327,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:43:25</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44278.9884837963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7578,10 +7404,8 @@
           <t>4307687874</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:39:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44278.98577546296</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7657,10 +7481,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:38:44</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44278.98523148148</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7736,10 +7558,8 @@
           <t>4307675424</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:35:26</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44278.98293981481</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7815,10 +7635,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:35:06</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44278.98270833334</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7890,10 +7708,8 @@
           <t>4307658808</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:34:05</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44278.98200231481</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7961,10 +7777,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:33:05</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44278.98130787037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8036,10 +7850,8 @@
           <t>4307240583</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:32:39</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44278.98100694444</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8107,10 +7919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:32:22</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44278.98081018519</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8186,10 +7996,8 @@
           <t>4307625112</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:26:39</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44278.97684027778</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8253,10 +8061,8 @@
           <t>4307228437</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:25:36</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44278.97611111111</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8320,10 +8126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:24:33</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44278.97538194444</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8383,10 +8187,8 @@
           <t>4307584549</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:20:26</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44278.97252314815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8454,10 +8256,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:20:08</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44278.97231481481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8525,10 +8325,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:17:35</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44278.97054398148</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8596,10 +8394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:17:29</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44278.97047453704</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8675,10 +8471,8 @@
           <t>4307560867</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:15:31</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44278.96910879629</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8754,10 +8548,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:13:57</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44278.96802083333</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8829,10 +8621,8 @@
           <t>4307534660</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:11:54</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44278.96659722222</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8900,10 +8690,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:09:54</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44278.96520833333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8971,10 +8759,8 @@
           <t>4307529299</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:09:22</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44278.96483796297</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9038,10 +8824,8 @@
           <t>4306889313</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:04:22</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44278.96136574074</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9113,10 +8897,8 @@
           <t>4306889313</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:04:00</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44278.96111111111</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9188,10 +8970,8 @@
           <t>4307489901</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:03:26</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44278.96071759259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9267,10 +9047,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:03:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44278.96053240741</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9346,10 +9124,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:02:44</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44278.96023148148</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9409,10 +9185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-23 23:01:15</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44278.95920138889</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9481,10 +9255,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:59:46</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44278.9581712963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9552,10 +9324,8 @@
           <t>4307363478</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:59:02</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44278.95766203704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9615,10 +9385,8 @@
           <t>4307475686</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:58:53</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44278.95755787037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9686,10 +9454,8 @@
           <t>4307465951</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:56:53</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44278.95616898148</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9757,10 +9523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:56:51</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44278.95614583333</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9832,10 +9596,8 @@
           <t>4307457179</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:56:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44278.95564814815</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9895,10 +9657,8 @@
           <t>4307446677</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:53:50</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44278.95405092592</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9966,10 +9726,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:52:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44278.95313657408</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10042,10 +9800,8 @@
           <t>4307424834</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:50:56</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44278.95203703704</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10117,10 +9873,8 @@
           <t>4307336287</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:50:13</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44278.95153935185</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -10188,10 +9942,8 @@
           <t>4307421989</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:49:19</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44278.95091435185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10260,10 +10012,8 @@
           <t>4307407560</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:46:55</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44278.94924768519</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10339,10 +10089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:46:34</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44278.94900462963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10414,10 +10162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:45:49</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44278.9484837963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10481,10 +10227,8 @@
           <t>4307392901</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:44:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44278.9474537037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10544,10 +10288,8 @@
           <t>4307152976</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:43:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44278.94707175926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10619,10 +10361,8 @@
           <t>4307382535</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:41:50</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44278.94571759259</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10698,10 +10438,8 @@
           <t>4307363478</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:39:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44278.94383101852</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10769,10 +10507,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:38:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44278.94335648148</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10844,10 +10580,8 @@
           <t>4307357752</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:37:19</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44278.94258101852</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10915,10 +10649,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:35:26</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44278.94127314815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10986,10 +10718,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:34:04</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44278.94032407407</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11065,10 +10795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:33:47</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44278.94012731482</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11132,10 +10860,8 @@
           <t>4307336287</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:32:23</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44278.93915509259</v>
       </c>
       <c r="I146" t="n">
         <v>11</v>
@@ -11203,10 +10929,8 @@
           <t>4307335807</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:32:08</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44278.93898148148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11282,10 +11006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:30:08</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44278.93759259259</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11357,10 +11079,8 @@
           <t>4307317209</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:30:05</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44278.93755787037</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11432,10 +11152,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:29:33</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44278.9371875</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11511,10 +11229,8 @@
           <t>4307140594</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:28:50</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44278.93668981481</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11591,10 +11307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:27:54</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44278.93604166667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11670,10 +11384,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:27:54</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44278.93604166667</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11745,10 +11457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:27:32</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44278.93578703704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11812,10 +11522,8 @@
           <t>4307212757</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:27:27</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44278.93572916667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11891,10 +11599,8 @@
           <t>4307299016</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:26:37</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44278.93515046296</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11962,10 +11668,8 @@
           <t>4307111712</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:26:05</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44278.93478009259</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12041,10 +11745,8 @@
           <t>4307083588</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:25:48</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44278.93458333334</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12120,10 +11822,8 @@
           <t>4307111712</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:25:05</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44278.93408564815</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12199,10 +11899,8 @@
           <t>4307284778</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:24:10</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44278.93344907407</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12274,10 +11972,8 @@
           <t>4307037838</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:23:54</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44278.93326388889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12353,10 +12049,8 @@
           <t>4307264725</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:20:36</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44278.93097222222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12424,10 +12118,8 @@
           <t>4307270097</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:20:09</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44278.93065972222</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12500,10 +12192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:20:08</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44278.93064814815</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12579,10 +12269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:19:58</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44278.93053240741</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12658,10 +12346,8 @@
           <t>4306972242</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:19:39</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44278.9303125</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12725,10 +12411,8 @@
           <t>4306972242</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:18:59</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44278.92984953704</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12800,10 +12484,8 @@
           <t>4307240583</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:14:36</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44278.92680555556</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12879,10 +12561,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:13:57</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44278.92635416667</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12954,10 +12634,8 @@
           <t>4307228437</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:13:20</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44278.92592592593</v>
       </c>
       <c r="I170" t="n">
         <v>25</v>
@@ -13017,10 +12695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:11:44</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44278.92481481482</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13096,10 +12772,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:11:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44278.92480324074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13171,10 +12845,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:11:33</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44278.9246875</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13246,10 +12918,8 @@
           <t>4307216887</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:10:31</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44278.92396990741</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13313,10 +12983,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:10:14</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44278.92377314815</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13384,10 +13052,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:10:03</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44278.92364583333</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13455,10 +13121,8 @@
           <t>4307212757</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:09:55</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44278.92355324074</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13526,10 +13190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:09:52</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44278.92351851852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13601,10 +13263,8 @@
           <t>4307208481</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:09:01</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44278.92292824074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13668,10 +13328,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:08:31</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44278.92258101852</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13743,10 +13401,8 @@
           <t>4307207169</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:08:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44278.92238425926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13810,10 +13466,8 @@
           <t>4307206092</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:07:36</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44278.92194444445</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13885,10 +13539,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:07:01</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44278.92153935185</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13960,10 +13612,8 @@
           <t>4307193817</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:06:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44278.92101851852</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14035,10 +13685,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:05:45</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44278.92065972222</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14110,10 +13758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:05:38</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44278.92057870371</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14181,10 +13827,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:04:58</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44278.92011574074</v>
       </c>
       <c r="I187" t="n">
         <v>5</v>
@@ -14256,10 +13900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:04:15</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44278.91961805556</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14335,10 +13977,8 @@
           <t>4307173938</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:02:58</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44278.91872685185</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14410,10 +14050,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:02:33</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44278.9184375</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14489,10 +14127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:02:12</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44278.91819444444</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14556,10 +14192,8 @@
           <t>4307041491</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:02:06</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44278.918125</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14627,10 +14261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:01:29</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44278.91769675926</v>
       </c>
       <c r="I193" t="n">
         <v>37</v>
@@ -14706,10 +14338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:01:20</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44278.9175925926</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14777,10 +14407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:59:01</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44278.91598379629</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14856,10 +14484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:58:51</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44278.91586805556</v>
       </c>
       <c r="I196" t="n">
         <v>42</v>
@@ -14935,10 +14561,8 @@
           <t>4307153248</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:57:58</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44278.91525462963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15006,10 +14630,8 @@
           <t>4307152976</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:57:47</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44278.91512731482</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15081,10 +14703,8 @@
           <t>4307140594</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:55:05</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44278.91325231481</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15156,10 +14776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:54:52</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44278.91310185185</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15231,10 +14849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:54:49</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44278.91306712963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15302,10 +14918,8 @@
           <t>4307137684</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:54:26</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44278.91280092593</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15369,10 +14983,8 @@
           <t>4307133050</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:53:33</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44278.9121875</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15444,10 +15056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:53:22</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44278.91206018518</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15519,10 +15129,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:52:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44278.91140046297</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15594,10 +15202,8 @@
           <t>4306957054</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:51:45</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44278.9109375</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15665,10 +15271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:51:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44278.910625</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15740,10 +15344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:51:08</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44278.91050925926</v>
       </c>
       <c r="I208" t="n">
         <v>7</v>
@@ -15815,10 +15417,8 @@
           <t>4307111712</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:49:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44278.90952546296</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15886,10 +15486,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:48:31</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44278.90869212963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15961,10 +15559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:48:08</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44278.90842592593</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -16028,10 +15624,8 @@
           <t>4306887010</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:47:57</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44278.90829861111</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16103,10 +15697,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:47:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44278.90810185186</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16178,10 +15770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:47:26</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44278.90793981482</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16257,10 +15847,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:47:07</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44278.90771990741</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16332,10 +15920,8 @@
           <t>4307065913</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:45:41</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44278.90672453704</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16411,10 +15997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:45:11</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44278.90637731482</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16482,10 +16066,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:45:07</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44278.90633101852</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16561,10 +16143,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:45:03</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44278.90628472222</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16628,10 +16208,8 @@
           <t>4307083588</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:44:43</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44278.90605324074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16709,10 +16287,8 @@
           <t>4306827345</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:44:15</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44278.90572916667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16780,10 +16356,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:44:02</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44278.90557870371</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16859,10 +16433,8 @@
           <t>4307087098</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:43:58</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44278.90553240741</v>
       </c>
       <c r="I223" t="n">
         <v>52</v>
@@ -16930,10 +16502,8 @@
           <t>4307081550</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:43:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44278.90521990741</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16997,10 +16567,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:43:02</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44278.90488425926</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17060,10 +16628,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:42:51</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44278.90475694444</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17123,10 +16689,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:41:39</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44278.90392361111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17194,10 +16758,8 @@
           <t>4307037838</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:41:31</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44278.90383101852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17261,10 +16823,8 @@
           <t>4306886506</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:41:27</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44278.90378472222</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17329,10 +16889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:41:16</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44278.90365740741</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17400,10 +16958,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:41:16</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44278.90365740741</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17468,10 +17024,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:40:48</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44278.90333333334</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17547,10 +17101,8 @@
           <t>4307075898</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:40:45</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44278.90329861111</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17614,10 +17166,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:40:32</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44278.90314814815</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17689,10 +17239,8 @@
           <t>4307065913</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:39:57</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44278.90274305556</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17756,10 +17304,8 @@
           <t>4307052478</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:37:46</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44278.90122685185</v>
       </c>
       <c r="I236" t="n">
         <v>6</v>
@@ -17831,10 +17377,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:37:04</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44278.90074074074</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17906,10 +17450,8 @@
           <t>4307041997</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:36:53</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44278.90061342593</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17985,10 +17527,8 @@
           <t>4307043963</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:35:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44278.8999537037</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18052,10 +17592,8 @@
           <t>4307041491</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:35:04</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44278.89935185185</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18123,10 +17661,8 @@
           <t>4307037838</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:34:50</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44278.89918981482</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18202,10 +17738,8 @@
           <t>4307041997</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:34:40</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44278.89907407408</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18281,10 +17815,8 @@
           <t>4307046293</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:34:38</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44278.89905092592</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18360,10 +17892,8 @@
           <t>4307041491</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:34:22</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44278.89886574074</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18431,10 +17961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:33:58</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44278.89858796296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18502,10 +18030,8 @@
           <t>4307028570</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:32:35</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44278.89762731481</v>
       </c>
       <c r="I246" t="n">
         <v>6</v>
@@ -18569,10 +18095,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:32:23</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44278.89748842592</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18644,10 +18168,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:31:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44278.89715277778</v>
       </c>
       <c r="I248" t="n">
         <v>12</v>
@@ -18720,10 +18242,8 @@
           <t>4307020958</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:30:26</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44278.89613425926</v>
       </c>
       <c r="I249" t="n">
         <v>38</v>
@@ -18795,10 +18315,8 @@
           <t>4307019584</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:30:12</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44278.89597222222</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18874,10 +18392,8 @@
           <t>4307014455</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:29:59</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44278.89582175926</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18949,10 +18465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:29:39</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44278.89559027777</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19024,10 +18538,8 @@
           <t>4307016646</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:28:17</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44278.8946412037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19095,10 +18607,8 @@
           <t>4306984529</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:28:08</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44278.89453703703</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19174,10 +18684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:27:45</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44278.89427083333</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19253,10 +18761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:27:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44278.89403935185</v>
       </c>
       <c r="I256" t="n">
         <v>398</v>
@@ -19320,10 +18826,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:27:06</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44278.89381944444</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19395,10 +18899,8 @@
           <t>4307005312</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:26:53</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44278.89366898148</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19466,10 +18968,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:25:59</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44278.89304398148</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19533,10 +19033,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:25:34</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44278.89275462963</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19612,10 +19110,8 @@
           <t>4306827345</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:25:07</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44278.89244212963</v>
       </c>
       <c r="I261" t="n">
         <v>4</v>
@@ -19687,10 +19183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:24:20</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44278.89189814815</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19766,10 +19260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:23:44</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44278.89148148148</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19841,10 +19333,8 @@
           <t>4306984529</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:23:41</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44278.89144675926</v>
       </c>
       <c r="I264" t="n">
         <v>9</v>
@@ -19916,10 +19406,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:23:27</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44278.89128472222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19992,10 +19480,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:22:58</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44278.89094907408</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20071,10 +19557,8 @@
           <t>4306873987</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:22:06</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44278.89034722222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20146,10 +19630,8 @@
           <t>4306977699</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:22:00</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44278.89027777778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20225,10 +19707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:51</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44278.89017361111</v>
       </c>
       <c r="I269" t="n">
         <v>8</v>
@@ -20304,10 +19784,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:32</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44278.88995370371</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20383,10 +19861,8 @@
           <t>4306985772</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:11</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44278.88971064815</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20455,10 +19931,8 @@
           <t>4306985624</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:05</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44278.88964120371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20530,10 +20004,8 @@
           <t>4306976275</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:21:04</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44278.88962962963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20609,10 +20081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:20:37</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44278.88931712963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20676,10 +20146,8 @@
           <t>4306973842</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:19:58</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44278.88886574074</v>
       </c>
       <c r="I275" t="n">
         <v>2</v>
@@ -20751,10 +20219,8 @@
           <t>4306849432</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:19:52</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44278.8887962963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20822,10 +20288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:19:50</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44278.88877314814</v>
       </c>
       <c r="I277" t="n">
         <v>5</v>
@@ -20897,10 +20361,8 @@
           <t>4306873987</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:19:17</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44278.88839120371</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20968,10 +20430,8 @@
           <t>4306972242</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:18:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44278.88813657407</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21035,10 +20495,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:18:47</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44278.88804398148</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21106,10 +20564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:18:21</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44278.88774305556</v>
       </c>
       <c r="I281" t="n">
         <v>193</v>
@@ -21177,10 +20633,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:18:16</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44278.88768518518</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21252,10 +20706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:18:06</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44278.88756944444</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21331,10 +20783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:17:49</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44278.88737268518</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21411,10 +20861,8 @@
           <t>4306887010</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:17:07</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44278.88688657407</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21490,10 +20938,8 @@
           <t>4306959323</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44278.88679398148</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21567,10 +21013,8 @@
           <t>4306949873</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:53</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44278.88672453703</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21643,10 +21087,8 @@
           <t>4306953895</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:32</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44278.88648148148</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21722,10 +21164,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:24</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44278.88638888889</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21785,10 +21225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44278.88628472222</v>
       </c>
       <c r="I290" t="n">
         <v>82</v>
@@ -21864,10 +21302,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:16:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44278.88628472222</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21927,10 +21363,8 @@
           <t>4306952979</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:56</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44278.88606481482</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21994,10 +21428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:50</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44278.88599537037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22065,10 +21497,8 @@
           <t>4306957054</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:28</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44278.88574074074</v>
       </c>
       <c r="I294" t="n">
         <v>8</v>
@@ -22128,10 +21558,8 @@
           <t>4306952004</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:18</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44278.885625</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22191,10 +21619,8 @@
           <t>4306956523</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:08</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44278.88550925926</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22266,10 +21692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:15:06</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44278.88548611111</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22333,10 +21757,8 @@
           <t>4306951253</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:14:49</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44278.88528935185</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22408,10 +21830,8 @@
           <t>4306950211</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:14:06</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44278.88479166666</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22487,10 +21907,8 @@
           <t>4306943622</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:13:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44278.88422453704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22570,10 +21988,8 @@
           <t>4306905996</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:13:10</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44278.88414351852</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22638,10 +22054,8 @@
           <t>4306933952</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:13:00</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44278.88402777778</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22717,10 +22131,8 @@
           <t>4306938182</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:12:45</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44278.88385416667</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22784,10 +22196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:12:09</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44278.8834375</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22860,10 +22270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:11:53</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44278.88325231482</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22939,10 +22347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:11:01</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44278.88265046296</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23014,10 +22420,8 @@
           <t>4306901836</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:10:26</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44278.88224537037</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -23089,10 +22493,8 @@
           <t>4306919851</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:10:21</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44278.8821875</v>
       </c>
       <c r="I308" t="n">
         <v>4</v>
@@ -23156,10 +22558,8 @@
           <t>4306928533</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:09:59</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44278.88193287037</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23223,10 +22623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:09:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44278.88184027778</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23290,10 +22688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:09:43</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44278.88174768518</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23357,10 +22753,8 @@
           <t>4306923098</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:09:25</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44278.88153935185</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -23428,10 +22822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:09:07</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44278.88133101852</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23508,10 +22900,8 @@
           <t>4306922380</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44278.88121527778</v>
       </c>
       <c r="I314" t="n">
         <v>6</v>
@@ -23587,10 +22977,8 @@
           <t>4306926943</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:57</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44278.88121527778</v>
       </c>
       <c r="I315" t="n">
         <v>4</v>
@@ -23654,10 +23042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:43</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44278.88105324074</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23733,10 +23119,8 @@
           <t>4306921982</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44278.88103009259</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23813,10 +23197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:31</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44278.88091435185</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23892,10 +23274,8 @@
           <t>4306916915</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:25</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44278.88084490741</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23967,10 +23347,8 @@
           <t>4306916861</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:08:22</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44278.88081018518</v>
       </c>
       <c r="I320" t="n">
         <v>16</v>
@@ -24030,10 +23408,8 @@
           <t>4306916150</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:07:55</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44278.88049768518</v>
       </c>
       <c r="I321" t="n">
         <v>9</v>
@@ -24109,10 +23485,8 @@
           <t>4306908800</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:06:32</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44278.87953703704</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24184,10 +23558,8 @@
           <t>4306889313</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:06:30</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44278.87951388889</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24255,10 +23627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44278.87890046297</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24318,10 +23688,8 @@
           <t>4306906467</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:23</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44278.87873842593</v>
       </c>
       <c r="I325" t="n">
         <v>6</v>
@@ -24389,10 +23757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:20</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44278.8787037037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24470,10 +23836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:09</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44278.87857638889</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24549,10 +23913,8 @@
           <t>4306901836</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:09</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44278.87857638889</v>
       </c>
       <c r="I328" t="n">
         <v>36</v>
@@ -24620,10 +23982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:04</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44278.87851851852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24695,10 +24055,8 @@
           <t>4306901599</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:05:00</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44278.87847222222</v>
       </c>
       <c r="I330" t="n">
         <v>22</v>
@@ -24774,10 +24132,8 @@
           <t>4306906467</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:59</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44278.87846064815</v>
       </c>
       <c r="I331" t="n">
         <v>22</v>
@@ -24845,10 +24201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:42</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44278.87826388889</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24912,10 +24266,8 @@
           <t>4306905996</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:40</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44278.87824074074</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24975,10 +24327,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:04:32</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44278.87814814815</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -25046,10 +24396,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:03:49</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44278.87765046296</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25118,10 +24466,8 @@
           <t>4306889313</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:03:34</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44278.87747685185</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -25193,10 +24539,8 @@
           <t>4306898202</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:03:22</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44278.87733796296</v>
       </c>
       <c r="I337" t="n">
         <v>9</v>
@@ -25264,10 +24608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:57</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44278.87704861111</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25343,10 +24685,8 @@
           <t>4306897570</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:57</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44278.87704861111</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25406,10 +24746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:43</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44278.87688657407</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25481,10 +24819,8 @@
           <t>4306873987</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:06</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44278.87645833333</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25556,10 +24892,8 @@
           <t>4306887010</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:02:01</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44278.87640046296</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25631,10 +24965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:49</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44278.87626157407</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25710,10 +25042,8 @@
           <t>4306886506</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:41</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44278.87616898148</v>
       </c>
       <c r="I344" t="n">
         <v>7</v>
@@ -25777,10 +25107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:38</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44278.87613425926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25852,10 +25180,8 @@
           <t>4306886232</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:30</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44278.87604166667</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25923,10 +25249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:29</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44278.87603009259</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -25990,10 +25314,8 @@
           <t>4306890912</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:01:20</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44278.87592592592</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26070,10 +25392,8 @@
           <t>4306885330</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:53</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44278.87561342592</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26137,10 +25457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:38</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44278.87543981482</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26216,10 +25534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:35</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44278.87540509259</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26283,10 +25599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:31</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44278.87535879629</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26363,10 +25677,8 @@
           <t>4306827345</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44278.87534722222</v>
       </c>
       <c r="I353" t="n">
         <v>31</v>
@@ -26434,10 +25746,8 @@
           <t>4306873987</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-23 21:00:03</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44278.87503472222</v>
       </c>
       <c r="I354" t="n">
         <v>2</v>
@@ -26505,10 +25815,8 @@
           <t>4306873803</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:59:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44278.8749537037</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26569,10 +25877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:59:54</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44278.87493055555</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26640,10 +25946,8 @@
           <t>4306827345</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:59:29</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44278.87464120371</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26715,10 +26019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:59:25</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44278.87459490741</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26790,10 +26092,8 @@
           <t>4306881164</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:58:54</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44278.87423611111</v>
       </c>
       <c r="I359" t="n">
         <v>41</v>
@@ -26862,10 +26162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:58:34</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44278.87400462963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26942,10 +26240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:58:33</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44278.87399305555</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27021,10 +26317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:58:20</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44278.87384259259</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27100,10 +26394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:58:00</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44278.87361111111</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -27171,10 +26463,8 @@
           <t>4306869302</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:57:42</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44278.87340277778</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -27242,10 +26532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:57:27</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44278.87322916667</v>
       </c>
       <c r="I365" t="n">
         <v>15</v>
@@ -27322,10 +26610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:48</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44278.87277777777</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27389,10 +26675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:37</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44278.87265046296</v>
       </c>
       <c r="I367" t="n">
         <v>6</v>
@@ -27460,10 +26744,8 @@
           <t>4306863362</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:30</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44278.87256944444</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27539,10 +26821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:24</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44278.8725</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27618,10 +26898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:20</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44278.87245370371</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27697,10 +26975,8 @@
           <t>4306866903</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:10</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44278.87233796297</v>
       </c>
       <c r="I371" t="n">
         <v>6</v>
@@ -27774,10 +27050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:56:08</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44278.87231481481</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27853,10 +27127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:55:47</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44278.87207175926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27932,10 +27204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:55:32</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44278.87189814815</v>
       </c>
       <c r="I374" t="n">
         <v>22</v>
@@ -28003,10 +27273,8 @@
           <t>4306865287</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:55:09</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44278.87163194444</v>
       </c>
       <c r="I375" t="n">
         <v>11</v>
@@ -28082,10 +27350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:54:51</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44278.87142361111</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28161,10 +27427,8 @@
           <t>4306860645</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:54:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44278.8713425926</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28240,10 +27504,8 @@
           <t>4306854341</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:54:32</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44278.8712037037</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28320,10 +27582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:54:04</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44278.87087962963</v>
       </c>
       <c r="I379" t="n">
         <v>28</v>
@@ -28391,10 +27651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:53:59</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44278.87082175926</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28462,10 +27720,8 @@
           <t>4306849432</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:53:56</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44278.87078703703</v>
       </c>
       <c r="I381" t="n">
         <v>4</v>
@@ -28541,10 +27797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:53:43</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44278.87063657407</v>
       </c>
       <c r="I382" t="n">
         <v>2</v>
@@ -28608,10 +27862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:58</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44278.87011574074</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28690,10 +27942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44278.86998842593</v>
       </c>
       <c r="I384" t="n">
         <v>7</v>
@@ -28765,10 +28015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:45</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44278.86996527778</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28840,10 +28088,8 @@
           <t>4306851224</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:28</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44278.86976851852</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28919,10 +28165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:06</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44278.86951388889</v>
       </c>
       <c r="I387" t="n">
         <v>14</v>
@@ -28994,10 +28238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:02</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44278.86946759259</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29065,10 +28307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:02</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44278.86946759259</v>
       </c>
       <c r="I389" t="n">
         <v>1216</v>
@@ -29144,10 +28384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:52:00</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44278.86944444444</v>
       </c>
       <c r="I390" t="n">
         <v>6</v>
@@ -29223,10 +28461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:38</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44278.86918981482</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29302,10 +28538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:37</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44278.86917824074</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29373,10 +28607,8 @@
           <t>4306840884</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44278.86910879629</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29436,10 +28668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:26</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44278.86905092592</v>
       </c>
       <c r="I394" t="n">
         <v>7</v>
@@ -29516,10 +28746,8 @@
           <t>4306840624</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:20</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44278.86898148148</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29583,10 +28811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:14</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44278.86891203704</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29654,10 +28880,8 @@
           <t>4306845241</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:14</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44278.86891203704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29729,10 +28953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:51:03</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44278.86878472222</v>
       </c>
       <c r="I398" t="n">
         <v>9</v>
@@ -29792,10 +29014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:50:57</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44278.86871527778</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29867,10 +29087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:50:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44278.86847222222</v>
       </c>
       <c r="I400" t="n">
         <v>29</v>
@@ -29934,10 +29152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:50:17</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44278.86825231482</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30005,10 +29221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:50:07</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44278.86813657408</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30080,10 +29294,8 @@
           <t>4306828446</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:55</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44278.86799768519</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30155,10 +29367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:53</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44278.86797453704</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30234,10 +29444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:41</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44278.86783564815</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30313,10 +29521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:31</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44278.86771990741</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30392,10 +29598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:30</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44278.86770833333</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30467,10 +29671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:28</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44278.86768518519</v>
       </c>
       <c r="I408" t="n">
         <v>68</v>
@@ -30539,10 +29741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:19</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44278.86758101852</v>
       </c>
       <c r="I409" t="n">
         <v>24</v>
@@ -30618,10 +29818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:15</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44278.86753472222</v>
       </c>
       <c r="I410" t="n">
         <v>153</v>
@@ -30697,10 +29895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:15</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44278.86753472222</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30772,10 +29968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:14</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44278.86752314815</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30835,10 +30029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:49:07</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44278.86744212963</v>
       </c>
       <c r="I413" t="n">
         <v>8</v>
@@ -30902,10 +30094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:54</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44278.86729166667</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30977,10 +30167,8 @@
           <t>4306826622</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:44</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44278.86717592592</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -31052,10 +30240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:44</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44278.86717592592</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31127,10 +30313,8 @@
           <t>4306826549</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:41</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44278.8671412037</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31206,10 +30390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:37</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44278.86709490741</v>
       </c>
       <c r="I418" t="n">
         <v>4</v>
@@ -31281,10 +30463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:30</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44278.86701388889</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -31352,10 +30532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:29</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44278.86700231482</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31427,10 +30605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:29</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44278.86700231482</v>
       </c>
       <c r="I421" t="n">
         <v>84</v>
@@ -31506,10 +30682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:26</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44278.86696759259</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31573,10 +30747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:24</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44278.86694444445</v>
       </c>
       <c r="I423" t="n">
         <v>6</v>
@@ -31640,10 +30812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:24</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44278.86694444445</v>
       </c>
       <c r="I424" t="n">
         <v>6</v>
@@ -31719,10 +30889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:20</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44278.86689814815</v>
       </c>
       <c r="I425" t="n">
         <v>42</v>
@@ -31794,10 +30962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:17</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44278.86686342592</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31861,10 +31027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:15</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44278.86684027778</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31932,10 +31096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:15</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44278.86684027778</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32007,10 +31169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:14</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44278.86682870371</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -32078,10 +31238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:08</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44278.86675925926</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32149,10 +31307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:06</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44278.86673611111</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32216,10 +31372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:04</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44278.86671296296</v>
       </c>
       <c r="I432" t="n">
         <v>5</v>
@@ -32287,10 +31441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:02</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44278.86668981481</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32366,10 +31518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:01</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44278.86667824074</v>
       </c>
       <c r="I434" t="n">
         <v>416</v>
@@ -32437,10 +31587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:48:01</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44278.86667824074</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32516,10 +31664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:59</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44278.86665509259</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32583,10 +31729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:52</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44278.86657407408</v>
       </c>
       <c r="I437" t="n">
         <v>56</v>
@@ -32654,10 +31798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:48</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44278.86652777778</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32733,10 +31875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:48</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44278.86652777778</v>
       </c>
       <c r="I439" t="n">
         <v>3</v>
@@ -32812,10 +31952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:47</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44278.86651620371</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32875,10 +32013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:46</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44278.86650462963</v>
       </c>
       <c r="I441" t="n">
         <v>36</v>
@@ -32954,10 +32090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:42</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44278.86645833333</v>
       </c>
       <c r="I442" t="n">
         <v>84</v>
@@ -33017,10 +32151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:38</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44278.86641203704</v>
       </c>
       <c r="I443" t="n">
         <v>10</v>
@@ -33088,10 +32220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:35</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44278.86637731481</v>
       </c>
       <c r="I444" t="n">
         <v>17</v>
@@ -33163,10 +32293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-23 20:47:23</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44278.86623842592</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
